--- a/Content/ExcelFiles/Giảng Viên Hướng Dẫn Sinh Viên.xlsx
+++ b/Content/ExcelFiles/Giảng Viên Hướng Dẫn Sinh Viên.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A17D7-9E17-442E-9F4D-11841B76F12F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF34A6D-6981-4321-A91D-529CDED2E99F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08112A11-8373-42DF-949F-779A565F32FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>Ma Giang Vien</t>
   </si>
@@ -151,17 +151,47 @@
   </si>
   <si>
     <t>Hoàng Văn Đạt</t>
+  </si>
+  <si>
+    <t>0801-01</t>
+  </si>
+  <si>
+    <t>Dương Thị Hiền Thanh</t>
+  </si>
+  <si>
+    <t>0805-01</t>
+  </si>
+  <si>
+    <t>Lê Thanh Huệ</t>
+  </si>
+  <si>
+    <t>0803-01</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Hằng</t>
+  </si>
+  <si>
+    <t>0808-01</t>
+  </si>
+  <si>
+    <t>0802-01</t>
+  </si>
+  <si>
+    <t>Phạm Quang Hiển</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,6 +199,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -186,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,17 +241,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +284,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,14 +582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A06FBB-2060-4F9D-BB08-DECEB516D00F}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,11 +614,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1721030108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6">
@@ -575,11 +628,11 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>1821050621</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6">
@@ -589,11 +642,11 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>1821050975</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6">
@@ -603,11 +656,11 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>1821051019</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6">
@@ -617,11 +670,11 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>1821050899</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6">
@@ -631,11 +684,11 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>1821050025</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6">
@@ -645,11 +698,11 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>1721030108</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6">
@@ -659,11 +712,11 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>1821050621</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6">
@@ -673,11 +726,11 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>1821050975</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6">
@@ -687,11 +740,11 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>1821051019</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6">
@@ -701,11 +754,11 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>1821050899</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6">
@@ -715,11 +768,11 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
-        <v>1821050025</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6">
@@ -729,11 +782,11 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <v>1721030108</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6">
@@ -743,11 +796,11 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
-        <v>1821050621</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6">
@@ -757,11 +810,11 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
-        <v>1821050975</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6">
@@ -771,11 +824,11 @@
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
-        <v>1821051019</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6">
@@ -785,11 +838,11 @@
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>1821050899</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6">
@@ -799,11 +852,11 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
-        <v>1821050025</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6">
@@ -813,11 +866,11 @@
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1">
-        <v>1721030108</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6">
@@ -827,11 +880,11 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1">
-        <v>1821050621</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6">
@@ -841,11 +894,11 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1">
-        <v>1821050975</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6">
@@ -855,11 +908,11 @@
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
-        <v>1821051019</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6">
@@ -869,11 +922,11 @@
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
-        <v>1821050899</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6">
@@ -883,11 +936,11 @@
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
-        <v>1821050025</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6">
@@ -897,11 +950,11 @@
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
-        <v>1721030108</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6">
@@ -911,11 +964,11 @@
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1">
-        <v>1821050621</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6">
@@ -925,11 +978,11 @@
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
-        <v>1821050975</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6">
@@ -939,11 +992,11 @@
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
-        <v>1821051019</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6">
@@ -953,11 +1006,11 @@
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
-        <v>1821050899</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6">
@@ -967,11 +1020,11 @@
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1">
-        <v>1821050025</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6">
@@ -981,11 +1034,11 @@
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1">
-        <v>1721030108</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6">
@@ -995,11 +1048,11 @@
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1">
-        <v>1821050621</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6">
@@ -1009,11 +1062,11 @@
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1">
-        <v>1821050975</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6">
@@ -1023,11 +1076,11 @@
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1">
-        <v>1821051019</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6">
@@ -1037,11 +1090,11 @@
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="1">
-        <v>1821050899</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Content/ExcelFiles/Giảng Viên Hướng Dẫn Sinh Viên.xlsx
+++ b/Content/ExcelFiles/Giảng Viên Hướng Dẫn Sinh Viên.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF34A6D-6981-4321-A91D-529CDED2E99F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B679D8-7C4F-4BC3-BCA4-68C399E235AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08112A11-8373-42DF-949F-779A565F32FC}"/>
   </bookViews>
@@ -159,28 +159,28 @@
     <t>Dương Thị Hiền Thanh</t>
   </si>
   <si>
-    <t>0805-01</t>
-  </si>
-  <si>
     <t>Lê Thanh Huệ</t>
   </si>
   <si>
-    <t>0803-01</t>
-  </si>
-  <si>
     <t>Nguyễn Thế Bình</t>
   </si>
   <si>
     <t>Nguyễn Thu Hằng</t>
   </si>
   <si>
-    <t>0808-01</t>
-  </si>
-  <si>
-    <t>0802-01</t>
-  </si>
-  <si>
     <t>Phạm Quang Hiển</t>
+  </si>
+  <si>
+    <t>0801-02</t>
+  </si>
+  <si>
+    <t>0801-03</t>
+  </si>
+  <si>
+    <t>0801-04</t>
+  </si>
+  <si>
+    <t>0801-05</t>
   </si>
 </sst>
 </file>
@@ -260,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A06FBB-2060-4F9D-BB08-DECEB516D00F}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -591,6 +592,7 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -712,11 +714,11 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6">
@@ -726,11 +728,11 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6">
@@ -740,11 +742,11 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6">
@@ -754,11 +756,11 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6">
@@ -768,11 +770,11 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6">
@@ -782,11 +784,11 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6">
@@ -796,11 +798,11 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6">
@@ -811,10 +813,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6">
@@ -825,10 +827,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6">
@@ -839,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6">
@@ -853,10 +855,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6">
@@ -867,10 +869,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6">
@@ -881,10 +883,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6">
@@ -895,10 +897,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6">
@@ -909,10 +911,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6">
@@ -923,10 +925,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6">
@@ -937,10 +939,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6">
@@ -951,10 +953,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6">
@@ -965,10 +967,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6">
@@ -979,10 +981,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6">
@@ -993,10 +995,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6">
@@ -1006,11 +1008,11 @@
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>47</v>
+      <c r="C30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6">
@@ -1020,11 +1022,11 @@
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
+      <c r="C31" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6">
@@ -1034,11 +1036,11 @@
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
+      <c r="C32" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6">
@@ -1048,11 +1050,11 @@
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>47</v>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6">
@@ -1062,11 +1064,11 @@
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6">
@@ -1076,11 +1078,11 @@
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6">
@@ -1090,11 +1092,11 @@
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>47</v>
+      <c r="C36" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
